--- a/branches/main/StructureDefinition-art-status.xlsx
+++ b/branches/main/StructureDefinition-art-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T08:40:35+00:00</t>
+    <t>2022-09-14T09:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-art-status.xlsx
+++ b/branches/main/StructureDefinition-art-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:10:35+00:00</t>
+    <t>2022-09-19T11:28:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-art-status.xlsx
+++ b/branches/main/StructureDefinition-art-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:28:39+00:00</t>
+    <t>2022-09-19T11:47:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-art-status.xlsx
+++ b/branches/main/StructureDefinition-art-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:47:22+00:00</t>
+    <t>2022-10-06T14:49:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
